--- a/nodeBE/output.xlsx
+++ b/nodeBE/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>translator</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>genre</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>genre</t>
+          <t>price</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
@@ -477,326 +472,64 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8859735411382</v>
+        <v>9786165989480</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>เสริมทักษะอังกฤษประถมต้น</t>
+          <t>ระบบรัฐสวัสดิการในเมืองฝรั่ง</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>สุดธิดา เปลี่ยนสายสืบ</t>
+          <t>ภรณี ภูรีสิทธิ์</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>เสมสิกขาลัย</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ซันไชล์ดเลิร์นนิง, สนพ.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>คู่มือเรียน-สอบ</t>
-        </is>
+          <t>การเมือง / เศรษฐกิจ / สังคม (วิจารณ์)</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>220</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.137</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8859735412037</v>
+        <v>9786169392989</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>เล่มแรกของอนุบาลคนเก่ง 1-100</t>
+          <t>ฟางลี่จือ : นักวิทย์ ปะทะ คอมมิวนิสต์จีน</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>สุดธิดา เปลี่ยนสายสืบ</t>
+          <t>ฟาง ลี่จือ/อนวัช อรรถจินดาและเนติวิทย์ โชติภัทร์ไพศาล</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>นิสิตสามย่าน</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ซันไชล์ดเลิร์นนิง, สนพ.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>คู่มือเรียน-สอบ</t>
-        </is>
+          <t>ประวัติศาสตร์ / วัฒนธรรม / อัตชีวประวัติ</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>280</v>
       </c>
       <c r="G3" t="n">
-        <v>169</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.268</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>9786160842681</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Business English@Work อังกฤษธุรกิจเพื่อมนุษย์ออฟฟิศมือโปร</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Su Qin (ซู ฉิน)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>กัญญารัตน์ จิราสวัสดิ์</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ซีเอ็ดยูเคชั่น, บมจ.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ภาษาศาสตร์</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>299</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9786160848843</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ตลาดไทยใหญ่ทั้งโลก </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ฉันทพัทธ์ ปัญจมานนท์ </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ซีเอ็ดยูเคชั่น, บมจ.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>บริหาร</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>285</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>9786163813626</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Super Easy Memory Note วิทย์ ระดับ ป.4-5-6 เรียนก็เข้าใจ สอบยิ่งง่ายเลย</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ภาธิศา มะนุ่น (ครูพี่ภา)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Life Balance, สนพ. </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>คู่มือเรียน-สอบ</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>119</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9786165788694</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>เรียนจีนเพื่อการสื่อสารและเริ่มต้นธุรกิจซื้อขาย</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>วิทิต รุจิรวณิช</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>โอเพ่น ไอเดีย, สนพ.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ภาษาศาสตร์</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>325</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9786167894317</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Visit Hokkaido-Tohoku เที่ยวฮอกไกโด-โทโฮกุ</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>อดิศักดิ์ จันทร์ดวง</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ฟอร์เวิร์ด, สนพ.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ท่องเที่ยว</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>389</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.465</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9786169417880</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ม็อก แมวขี้หลงขี้ลืม</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Judith Kerr (จูดิธ เคอร์)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tinybeans</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Tinybeans</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>หนังสือเด็ก</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>225</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.223</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9786169417897</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>เมื่อเสือโคร่งแวะมาดื่มชา</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Judith Kerr (จูดิธ เคอร์)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tinybeans</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Tinybeans</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>หนังสือเด็ก</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>210</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.189</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
